--- a/docs/inputs/20200818-All Alerts-2.xlsx
+++ b/docs/inputs/20200818-All Alerts-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sujoysett/SujoyThings/ECLIPSE_WORKSPACE/trade-alert-pivot/docs/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C365D5D-1254-474A-AC02-4EE3A59F09C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C839AB2-1CB3-224A-ABB7-0D19AFD4CE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -855,7 +855,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.6640625" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
@@ -863,7 +863,7 @@
     <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -891,7 +891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -905,7 +905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -919,7 +919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -947,7 +947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -961,7 +961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -975,7 +975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -989,7 +989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>8</v>
       </c>
